--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Edil3-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Edil3-Itgb3.xlsx
@@ -540,10 +540,10 @@
         <v>7.595046</v>
       </c>
       <c r="I2">
-        <v>0.6122191758781785</v>
+        <v>0.7020156925206528</v>
       </c>
       <c r="J2">
-        <v>0.6122191758781785</v>
+        <v>0.7020156925206527</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N2">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O2">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P2">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q2">
-        <v>22.709309060736</v>
+        <v>0.279882508464</v>
       </c>
       <c r="R2">
-        <v>204.383781546624</v>
+        <v>2.518942576176</v>
       </c>
       <c r="S2">
-        <v>0.2982173376970839</v>
+        <v>0.007906448660253503</v>
       </c>
       <c r="T2">
-        <v>0.2982173376970839</v>
+        <v>0.007906448660253503</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>7.595046</v>
       </c>
       <c r="I3">
-        <v>0.6122191758781785</v>
+        <v>0.7020156925206528</v>
       </c>
       <c r="J3">
-        <v>0.6122191758781785</v>
+        <v>0.7020156925206527</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q3">
         <v>22.815697089528</v>
@@ -632,10 +632,10 @@
         <v>205.341273805752</v>
       </c>
       <c r="S3">
-        <v>0.2996144191593308</v>
+        <v>0.6445245137905832</v>
       </c>
       <c r="T3">
-        <v>0.2996144191593308</v>
+        <v>0.6445245137905832</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>7.595046</v>
       </c>
       <c r="I4">
-        <v>0.6122191758781785</v>
+        <v>0.7020156925206528</v>
       </c>
       <c r="J4">
-        <v>0.6122191758781785</v>
+        <v>0.7020156925206527</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N4">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q4">
-        <v>1.095604795062</v>
+        <v>1.755263232558</v>
       </c>
       <c r="R4">
-        <v>9.860443155558</v>
+        <v>15.797369093022</v>
       </c>
       <c r="S4">
-        <v>0.01438741902176392</v>
+        <v>0.04958473006981599</v>
       </c>
       <c r="T4">
-        <v>0.01438741902176392</v>
+        <v>0.04958473006981599</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.603572333333333</v>
+        <v>1.074622</v>
       </c>
       <c r="H5">
-        <v>4.810717</v>
+        <v>3.223866</v>
       </c>
       <c r="I5">
-        <v>0.3877808241218215</v>
+        <v>0.2979843074793473</v>
       </c>
       <c r="J5">
-        <v>0.3877808241218215</v>
+        <v>0.2979843074793473</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N5">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O5">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P5">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q5">
-        <v>14.384120801472</v>
+        <v>0.118801611344</v>
       </c>
       <c r="R5">
-        <v>129.457087213248</v>
+        <v>1.069214502096</v>
       </c>
       <c r="S5">
-        <v>0.1888914453123921</v>
+        <v>0.00335604695699497</v>
       </c>
       <c r="T5">
-        <v>0.1888914453123921</v>
+        <v>0.00335604695699497</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.603572333333333</v>
+        <v>1.074622</v>
       </c>
       <c r="H6">
-        <v>4.810717</v>
+        <v>3.223866</v>
       </c>
       <c r="I6">
-        <v>0.3877808241218215</v>
+        <v>0.2979843074793473</v>
       </c>
       <c r="J6">
-        <v>0.3877808241218215</v>
+        <v>0.2979843074793473</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q6">
-        <v>14.45150718711156</v>
+        <v>9.684569403954667</v>
       </c>
       <c r="R6">
-        <v>130.063564684004</v>
+        <v>87.161124635592</v>
       </c>
       <c r="S6">
-        <v>0.1897763594446852</v>
+        <v>0.2735810508818501</v>
       </c>
       <c r="T6">
-        <v>0.1897763594446852</v>
+        <v>0.2735810508818502</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.603572333333333</v>
+        <v>1.074622</v>
       </c>
       <c r="H7">
-        <v>4.810717</v>
+        <v>3.223866</v>
       </c>
       <c r="I7">
-        <v>0.3877808241218215</v>
+        <v>0.2979843074793473</v>
       </c>
       <c r="J7">
-        <v>0.3877808241218215</v>
+        <v>0.2979843074793473</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N7">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q7">
-        <v>0.6939582213045555</v>
+        <v>0.7450558504179999</v>
       </c>
       <c r="R7">
-        <v>6.245623991741001</v>
+        <v>6.705502653761999</v>
       </c>
       <c r="S7">
-        <v>0.009113019364744209</v>
+        <v>0.02104720964050217</v>
       </c>
       <c r="T7">
-        <v>0.009113019364744209</v>
+        <v>0.02104720964050217</v>
       </c>
     </row>
   </sheetData>
